--- a/RobotSensorData(Improved).xlsx
+++ b/RobotSensorData(Improved).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="14295" windowHeight="6375" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="14295" windowHeight="6375" tabRatio="791" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Blank Floor Plan" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Floor Plan 2" sheetId="5" r:id="rId3"/>
     <sheet name="Floor Plan 3" sheetId="6" r:id="rId4"/>
     <sheet name="Floor Plan 4" sheetId="7" r:id="rId5"/>
+    <sheet name="Floor Plan 5" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -60,197 +61,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="97">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <fill>
         <patternFill>
@@ -476,327 +287,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3420,19 +2910,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y30">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3444,8 +2934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB23" sqref="AB23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5765,19 +5255,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y30">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5790,8 +5280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="AI31" sqref="AI31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y30" sqref="A1:Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8113,23 +7603,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y30">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8137,8 +7628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD23" sqref="AD23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10459,19 +9950,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y30">
-    <cfRule type="cellIs" dxfId="88" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10484,8 +9975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="Y30" sqref="A1:Y30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12805,22 +12296,2368 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y30">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y30" sqref="A1:Y30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="25" width="2.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>0</v>
+      </c>
+      <c r="R1" s="1">
+        <v>0</v>
+      </c>
+      <c r="S1" s="1">
+        <v>0</v>
+      </c>
+      <c r="T1" s="1">
+        <v>0</v>
+      </c>
+      <c r="U1" s="1">
+        <v>0</v>
+      </c>
+      <c r="V1" s="1">
+        <v>0</v>
+      </c>
+      <c r="W1" s="1">
+        <v>0</v>
+      </c>
+      <c r="X1" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1">
+        <v>4</v>
+      </c>
+      <c r="L2" s="1">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1">
+        <v>4</v>
+      </c>
+      <c r="N2" s="1">
+        <v>4</v>
+      </c>
+      <c r="O2" s="1">
+        <v>4</v>
+      </c>
+      <c r="P2" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>4</v>
+      </c>
+      <c r="R2" s="1">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1">
+        <v>4</v>
+      </c>
+      <c r="T2" s="1">
+        <v>4</v>
+      </c>
+      <c r="U2" s="1">
+        <v>4</v>
+      </c>
+      <c r="V2" s="1">
+        <v>4</v>
+      </c>
+      <c r="W2" s="1">
+        <v>4</v>
+      </c>
+      <c r="X2" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4</v>
+      </c>
+      <c r="K3" s="1">
+        <v>4</v>
+      </c>
+      <c r="L3" s="1">
+        <v>4</v>
+      </c>
+      <c r="M3" s="1">
+        <v>4</v>
+      </c>
+      <c r="N3" s="1">
+        <v>4</v>
+      </c>
+      <c r="O3" s="1">
+        <v>4</v>
+      </c>
+      <c r="P3" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>4</v>
+      </c>
+      <c r="R3" s="1">
+        <v>4</v>
+      </c>
+      <c r="S3" s="1">
+        <v>4</v>
+      </c>
+      <c r="T3" s="1">
+        <v>4</v>
+      </c>
+      <c r="U3" s="1">
+        <v>4</v>
+      </c>
+      <c r="V3" s="1">
+        <v>3</v>
+      </c>
+      <c r="W3" s="1">
+        <v>4</v>
+      </c>
+      <c r="X3" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4</v>
+      </c>
+      <c r="M4" s="1">
+        <v>4</v>
+      </c>
+      <c r="N4" s="1">
+        <v>4</v>
+      </c>
+      <c r="O4" s="1">
+        <v>4</v>
+      </c>
+      <c r="P4" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>4</v>
+      </c>
+      <c r="R4" s="1">
+        <v>4</v>
+      </c>
+      <c r="S4" s="1">
+        <v>4</v>
+      </c>
+      <c r="T4" s="1">
+        <v>4</v>
+      </c>
+      <c r="U4" s="1">
+        <v>3</v>
+      </c>
+      <c r="V4" s="1">
+        <v>4</v>
+      </c>
+      <c r="W4" s="1">
+        <v>3</v>
+      </c>
+      <c r="X4" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4</v>
+      </c>
+      <c r="M5" s="1">
+        <v>4</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4</v>
+      </c>
+      <c r="O5" s="1">
+        <v>4</v>
+      </c>
+      <c r="P5" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>4</v>
+      </c>
+      <c r="R5" s="1">
+        <v>4</v>
+      </c>
+      <c r="S5" s="1">
+        <v>4</v>
+      </c>
+      <c r="T5" s="1">
+        <v>3</v>
+      </c>
+      <c r="U5" s="1">
+        <v>4</v>
+      </c>
+      <c r="V5" s="1">
+        <v>4</v>
+      </c>
+      <c r="W5" s="1">
+        <v>4</v>
+      </c>
+      <c r="X5" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1">
+        <v>4</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+      <c r="M6" s="1">
+        <v>4</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4</v>
+      </c>
+      <c r="O6" s="1">
+        <v>4</v>
+      </c>
+      <c r="P6" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>3</v>
+      </c>
+      <c r="R6" s="1">
+        <v>3</v>
+      </c>
+      <c r="S6" s="1">
+        <v>3</v>
+      </c>
+      <c r="T6" s="1">
+        <v>4</v>
+      </c>
+      <c r="U6" s="1">
+        <v>4</v>
+      </c>
+      <c r="V6" s="1">
+        <v>3</v>
+      </c>
+      <c r="W6" s="1">
+        <v>4</v>
+      </c>
+      <c r="X6" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4</v>
+      </c>
+      <c r="K7" s="1">
+        <v>4</v>
+      </c>
+      <c r="L7" s="1">
+        <v>4</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4</v>
+      </c>
+      <c r="N7" s="1">
+        <v>4</v>
+      </c>
+      <c r="O7" s="1">
+        <v>4</v>
+      </c>
+      <c r="P7" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>4</v>
+      </c>
+      <c r="R7" s="1">
+        <v>3</v>
+      </c>
+      <c r="S7" s="1">
+        <v>4</v>
+      </c>
+      <c r="T7" s="1">
+        <v>4</v>
+      </c>
+      <c r="U7" s="1">
+        <v>3</v>
+      </c>
+      <c r="V7" s="1">
+        <v>4</v>
+      </c>
+      <c r="W7" s="1">
+        <v>3</v>
+      </c>
+      <c r="X7" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4</v>
+      </c>
+      <c r="M8" s="1">
+        <v>4</v>
+      </c>
+      <c r="N8" s="1">
+        <v>4</v>
+      </c>
+      <c r="O8" s="1">
+        <v>4</v>
+      </c>
+      <c r="P8" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>4</v>
+      </c>
+      <c r="R8" s="1">
+        <v>4</v>
+      </c>
+      <c r="S8" s="1">
+        <v>3</v>
+      </c>
+      <c r="T8" s="1">
+        <v>3</v>
+      </c>
+      <c r="U8" s="1">
+        <v>4</v>
+      </c>
+      <c r="V8" s="1">
+        <v>4</v>
+      </c>
+      <c r="W8" s="1">
+        <v>3</v>
+      </c>
+      <c r="X8" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4</v>
+      </c>
+      <c r="M9" s="1">
+        <v>4</v>
+      </c>
+      <c r="N9" s="1">
+        <v>4</v>
+      </c>
+      <c r="O9" s="1">
+        <v>4</v>
+      </c>
+      <c r="P9" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>4</v>
+      </c>
+      <c r="R9" s="1">
+        <v>4</v>
+      </c>
+      <c r="S9" s="1">
+        <v>4</v>
+      </c>
+      <c r="T9" s="1">
+        <v>4</v>
+      </c>
+      <c r="U9" s="1">
+        <v>4</v>
+      </c>
+      <c r="V9" s="1">
+        <v>4</v>
+      </c>
+      <c r="W9" s="1">
+        <v>4</v>
+      </c>
+      <c r="X9" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1">
+        <v>4</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4</v>
+      </c>
+      <c r="L10" s="1">
+        <v>4</v>
+      </c>
+      <c r="M10" s="1">
+        <v>4</v>
+      </c>
+      <c r="N10" s="1">
+        <v>4</v>
+      </c>
+      <c r="O10" s="1">
+        <v>3</v>
+      </c>
+      <c r="P10" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>4</v>
+      </c>
+      <c r="R10" s="1">
+        <v>4</v>
+      </c>
+      <c r="S10" s="1">
+        <v>4</v>
+      </c>
+      <c r="T10" s="1">
+        <v>4</v>
+      </c>
+      <c r="U10" s="1">
+        <v>4</v>
+      </c>
+      <c r="V10" s="1">
+        <v>4</v>
+      </c>
+      <c r="W10" s="1">
+        <v>4</v>
+      </c>
+      <c r="X10" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4</v>
+      </c>
+      <c r="K11" s="1">
+        <v>4</v>
+      </c>
+      <c r="L11" s="1">
+        <v>4</v>
+      </c>
+      <c r="M11" s="1">
+        <v>4</v>
+      </c>
+      <c r="N11" s="1">
+        <v>3</v>
+      </c>
+      <c r="O11" s="1">
+        <v>4</v>
+      </c>
+      <c r="P11" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>3</v>
+      </c>
+      <c r="R11" s="1">
+        <v>3</v>
+      </c>
+      <c r="S11" s="1">
+        <v>4</v>
+      </c>
+      <c r="T11" s="1">
+        <v>4</v>
+      </c>
+      <c r="U11" s="1">
+        <v>4</v>
+      </c>
+      <c r="V11" s="1">
+        <v>3</v>
+      </c>
+      <c r="W11" s="1">
+        <v>3</v>
+      </c>
+      <c r="X11" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4</v>
+      </c>
+      <c r="K12" s="1">
+        <v>4</v>
+      </c>
+      <c r="L12" s="1">
+        <v>4</v>
+      </c>
+      <c r="M12" s="1">
+        <v>3</v>
+      </c>
+      <c r="N12" s="1">
+        <v>3</v>
+      </c>
+      <c r="O12" s="1">
+        <v>4</v>
+      </c>
+      <c r="P12" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>4</v>
+      </c>
+      <c r="R12" s="1">
+        <v>4</v>
+      </c>
+      <c r="S12" s="1">
+        <v>3</v>
+      </c>
+      <c r="T12" s="1">
+        <v>4</v>
+      </c>
+      <c r="U12" s="1">
+        <v>4</v>
+      </c>
+      <c r="V12" s="1">
+        <v>3</v>
+      </c>
+      <c r="W12" s="1">
+        <v>4</v>
+      </c>
+      <c r="X12" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1">
+        <v>4</v>
+      </c>
+      <c r="J13" s="1">
+        <v>4</v>
+      </c>
+      <c r="K13" s="1">
+        <v>4</v>
+      </c>
+      <c r="L13" s="1">
+        <v>4</v>
+      </c>
+      <c r="M13" s="1">
+        <v>4</v>
+      </c>
+      <c r="N13" s="1">
+        <v>4</v>
+      </c>
+      <c r="O13" s="1">
+        <v>3</v>
+      </c>
+      <c r="P13" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>4</v>
+      </c>
+      <c r="R13" s="1">
+        <v>4</v>
+      </c>
+      <c r="S13" s="1">
+        <v>4</v>
+      </c>
+      <c r="T13" s="1">
+        <v>3</v>
+      </c>
+      <c r="U13" s="1">
+        <v>3</v>
+      </c>
+      <c r="V13" s="1">
+        <v>4</v>
+      </c>
+      <c r="W13" s="1">
+        <v>4</v>
+      </c>
+      <c r="X13" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4</v>
+      </c>
+      <c r="K14" s="1">
+        <v>4</v>
+      </c>
+      <c r="L14" s="1">
+        <v>4</v>
+      </c>
+      <c r="M14" s="1">
+        <v>4</v>
+      </c>
+      <c r="N14" s="1">
+        <v>4</v>
+      </c>
+      <c r="O14" s="1">
+        <v>4</v>
+      </c>
+      <c r="P14" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>3</v>
+      </c>
+      <c r="R14" s="1">
+        <v>4</v>
+      </c>
+      <c r="S14" s="1">
+        <v>4</v>
+      </c>
+      <c r="T14" s="1">
+        <v>4</v>
+      </c>
+      <c r="U14" s="1">
+        <v>3</v>
+      </c>
+      <c r="V14" s="1">
+        <v>4</v>
+      </c>
+      <c r="W14" s="1">
+        <v>4</v>
+      </c>
+      <c r="X14" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4</v>
+      </c>
+      <c r="I15" s="1">
+        <v>4</v>
+      </c>
+      <c r="J15" s="1">
+        <v>4</v>
+      </c>
+      <c r="K15" s="1">
+        <v>4</v>
+      </c>
+      <c r="L15" s="1">
+        <v>4</v>
+      </c>
+      <c r="M15" s="1">
+        <v>4</v>
+      </c>
+      <c r="N15" s="1">
+        <v>4</v>
+      </c>
+      <c r="O15" s="1">
+        <v>4</v>
+      </c>
+      <c r="P15" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>3</v>
+      </c>
+      <c r="R15" s="1">
+        <v>3</v>
+      </c>
+      <c r="S15" s="1">
+        <v>4</v>
+      </c>
+      <c r="T15" s="1">
+        <v>4</v>
+      </c>
+      <c r="U15" s="1">
+        <v>4</v>
+      </c>
+      <c r="V15" s="1">
+        <v>3</v>
+      </c>
+      <c r="W15" s="1">
+        <v>4</v>
+      </c>
+      <c r="X15" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4</v>
+      </c>
+      <c r="K16" s="1">
+        <v>4</v>
+      </c>
+      <c r="L16" s="1">
+        <v>4</v>
+      </c>
+      <c r="M16" s="1">
+        <v>4</v>
+      </c>
+      <c r="N16" s="1">
+        <v>4</v>
+      </c>
+      <c r="O16" s="1">
+        <v>4</v>
+      </c>
+      <c r="P16" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>4</v>
+      </c>
+      <c r="R16" s="1">
+        <v>3</v>
+      </c>
+      <c r="S16" s="1">
+        <v>3</v>
+      </c>
+      <c r="T16" s="1">
+        <v>4</v>
+      </c>
+      <c r="U16" s="1">
+        <v>4</v>
+      </c>
+      <c r="V16" s="1">
+        <v>4</v>
+      </c>
+      <c r="W16" s="1">
+        <v>3</v>
+      </c>
+      <c r="X16" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4</v>
+      </c>
+      <c r="J17" s="1">
+        <v>4</v>
+      </c>
+      <c r="K17" s="1">
+        <v>4</v>
+      </c>
+      <c r="L17" s="1">
+        <v>4</v>
+      </c>
+      <c r="M17" s="1">
+        <v>4</v>
+      </c>
+      <c r="N17" s="1">
+        <v>4</v>
+      </c>
+      <c r="O17" s="1">
+        <v>3</v>
+      </c>
+      <c r="P17" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>4</v>
+      </c>
+      <c r="R17" s="1">
+        <v>4</v>
+      </c>
+      <c r="S17" s="1">
+        <v>3</v>
+      </c>
+      <c r="T17" s="1">
+        <v>4</v>
+      </c>
+      <c r="U17" s="1">
+        <v>4</v>
+      </c>
+      <c r="V17" s="1">
+        <v>4</v>
+      </c>
+      <c r="W17" s="1">
+        <v>4</v>
+      </c>
+      <c r="X17" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1">
+        <v>4</v>
+      </c>
+      <c r="J18" s="1">
+        <v>4</v>
+      </c>
+      <c r="K18" s="1">
+        <v>4</v>
+      </c>
+      <c r="L18" s="1">
+        <v>4</v>
+      </c>
+      <c r="M18" s="1">
+        <v>4</v>
+      </c>
+      <c r="N18" s="1">
+        <v>4</v>
+      </c>
+      <c r="O18" s="1">
+        <v>4</v>
+      </c>
+      <c r="P18" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>4</v>
+      </c>
+      <c r="R18" s="1">
+        <v>3</v>
+      </c>
+      <c r="S18" s="1">
+        <v>4</v>
+      </c>
+      <c r="T18" s="1">
+        <v>3</v>
+      </c>
+      <c r="U18" s="1">
+        <v>4</v>
+      </c>
+      <c r="V18" s="1">
+        <v>4</v>
+      </c>
+      <c r="W18" s="1">
+        <v>3</v>
+      </c>
+      <c r="X18" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4</v>
+      </c>
+      <c r="H19" s="1">
+        <v>4</v>
+      </c>
+      <c r="I19" s="1">
+        <v>4</v>
+      </c>
+      <c r="J19" s="1">
+        <v>4</v>
+      </c>
+      <c r="K19" s="1">
+        <v>4</v>
+      </c>
+      <c r="L19" s="1">
+        <v>4</v>
+      </c>
+      <c r="M19" s="1">
+        <v>4</v>
+      </c>
+      <c r="N19" s="1">
+        <v>4</v>
+      </c>
+      <c r="O19" s="1">
+        <v>4</v>
+      </c>
+      <c r="P19" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>3</v>
+      </c>
+      <c r="R19" s="1">
+        <v>4</v>
+      </c>
+      <c r="S19" s="1">
+        <v>4</v>
+      </c>
+      <c r="T19" s="1">
+        <v>4</v>
+      </c>
+      <c r="U19" s="1">
+        <v>3</v>
+      </c>
+      <c r="V19" s="1">
+        <v>3</v>
+      </c>
+      <c r="W19" s="1">
+        <v>4</v>
+      </c>
+      <c r="X19" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1">
+        <v>4</v>
+      </c>
+      <c r="J20" s="1">
+        <v>4</v>
+      </c>
+      <c r="K20" s="1">
+        <v>4</v>
+      </c>
+      <c r="L20" s="1">
+        <v>4</v>
+      </c>
+      <c r="M20" s="1">
+        <v>4</v>
+      </c>
+      <c r="N20" s="1">
+        <v>4</v>
+      </c>
+      <c r="O20" s="1">
+        <v>4</v>
+      </c>
+      <c r="P20" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>4</v>
+      </c>
+      <c r="R20" s="1">
+        <v>4</v>
+      </c>
+      <c r="S20" s="1">
+        <v>4</v>
+      </c>
+      <c r="T20" s="1">
+        <v>4</v>
+      </c>
+      <c r="U20" s="1">
+        <v>4</v>
+      </c>
+      <c r="V20" s="1">
+        <v>3</v>
+      </c>
+      <c r="W20" s="1">
+        <v>4</v>
+      </c>
+      <c r="X20" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4</v>
+      </c>
+      <c r="I21" s="1">
+        <v>4</v>
+      </c>
+      <c r="J21" s="1">
+        <v>4</v>
+      </c>
+      <c r="K21" s="1">
+        <v>4</v>
+      </c>
+      <c r="L21" s="1">
+        <v>3</v>
+      </c>
+      <c r="M21" s="1">
+        <v>4</v>
+      </c>
+      <c r="N21" s="1">
+        <v>4</v>
+      </c>
+      <c r="O21" s="1">
+        <v>4</v>
+      </c>
+      <c r="P21" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>4</v>
+      </c>
+      <c r="R21" s="1">
+        <v>4</v>
+      </c>
+      <c r="S21" s="1">
+        <v>4</v>
+      </c>
+      <c r="T21" s="1">
+        <v>4</v>
+      </c>
+      <c r="U21" s="1">
+        <v>4</v>
+      </c>
+      <c r="V21" s="1">
+        <v>4</v>
+      </c>
+      <c r="W21" s="1">
+        <v>4</v>
+      </c>
+      <c r="X21" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4</v>
+      </c>
+      <c r="G22" s="1">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1">
+        <v>4</v>
+      </c>
+      <c r="I22" s="1">
+        <v>4</v>
+      </c>
+      <c r="J22" s="1">
+        <v>4</v>
+      </c>
+      <c r="K22" s="1">
+        <v>3</v>
+      </c>
+      <c r="L22" s="1">
+        <v>4</v>
+      </c>
+      <c r="M22" s="1">
+        <v>4</v>
+      </c>
+      <c r="N22" s="1">
+        <v>4</v>
+      </c>
+      <c r="O22" s="1">
+        <v>4</v>
+      </c>
+      <c r="P22" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>4</v>
+      </c>
+      <c r="R22" s="1">
+        <v>4</v>
+      </c>
+      <c r="S22" s="1">
+        <v>4</v>
+      </c>
+      <c r="T22" s="1">
+        <v>4</v>
+      </c>
+      <c r="U22" s="1">
+        <v>4</v>
+      </c>
+      <c r="V22" s="1">
+        <v>4</v>
+      </c>
+      <c r="W22" s="1">
+        <v>4</v>
+      </c>
+      <c r="X22" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4</v>
+      </c>
+      <c r="H23" s="1">
+        <v>4</v>
+      </c>
+      <c r="I23" s="1">
+        <v>4</v>
+      </c>
+      <c r="J23" s="1">
+        <v>3</v>
+      </c>
+      <c r="K23" s="1">
+        <v>3</v>
+      </c>
+      <c r="L23" s="1">
+        <v>4</v>
+      </c>
+      <c r="M23" s="1">
+        <v>4</v>
+      </c>
+      <c r="N23" s="1">
+        <v>4</v>
+      </c>
+      <c r="O23" s="1">
+        <v>4</v>
+      </c>
+      <c r="P23" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>4</v>
+      </c>
+      <c r="R23" s="1">
+        <v>4</v>
+      </c>
+      <c r="S23" s="1">
+        <v>4</v>
+      </c>
+      <c r="T23" s="1">
+        <v>4</v>
+      </c>
+      <c r="U23" s="1">
+        <v>4</v>
+      </c>
+      <c r="V23" s="1">
+        <v>4</v>
+      </c>
+      <c r="W23" s="1">
+        <v>4</v>
+      </c>
+      <c r="X23" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1">
+        <v>4</v>
+      </c>
+      <c r="I24" s="1">
+        <v>3</v>
+      </c>
+      <c r="J24" s="1">
+        <v>4</v>
+      </c>
+      <c r="K24" s="1">
+        <v>3</v>
+      </c>
+      <c r="L24" s="1">
+        <v>4</v>
+      </c>
+      <c r="M24" s="1">
+        <v>4</v>
+      </c>
+      <c r="N24" s="1">
+        <v>4</v>
+      </c>
+      <c r="O24" s="1">
+        <v>4</v>
+      </c>
+      <c r="P24" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>4</v>
+      </c>
+      <c r="R24" s="1">
+        <v>4</v>
+      </c>
+      <c r="S24" s="1">
+        <v>4</v>
+      </c>
+      <c r="T24" s="1">
+        <v>4</v>
+      </c>
+      <c r="U24" s="1">
+        <v>4</v>
+      </c>
+      <c r="V24" s="1">
+        <v>4</v>
+      </c>
+      <c r="W24" s="1">
+        <v>4</v>
+      </c>
+      <c r="X24" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1">
+        <v>4</v>
+      </c>
+      <c r="H25" s="1">
+        <v>3</v>
+      </c>
+      <c r="I25" s="1">
+        <v>4</v>
+      </c>
+      <c r="J25" s="1">
+        <v>4</v>
+      </c>
+      <c r="K25" s="1">
+        <v>3</v>
+      </c>
+      <c r="L25" s="1">
+        <v>4</v>
+      </c>
+      <c r="M25" s="1">
+        <v>4</v>
+      </c>
+      <c r="N25" s="1">
+        <v>4</v>
+      </c>
+      <c r="O25" s="1">
+        <v>4</v>
+      </c>
+      <c r="P25" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>4</v>
+      </c>
+      <c r="R25" s="1">
+        <v>4</v>
+      </c>
+      <c r="S25" s="1">
+        <v>4</v>
+      </c>
+      <c r="T25" s="1">
+        <v>4</v>
+      </c>
+      <c r="U25" s="1">
+        <v>4</v>
+      </c>
+      <c r="V25" s="1">
+        <v>4</v>
+      </c>
+      <c r="W25" s="1">
+        <v>4</v>
+      </c>
+      <c r="X25" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4</v>
+      </c>
+      <c r="F26" s="1">
+        <v>4</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3</v>
+      </c>
+      <c r="I26" s="1">
+        <v>4</v>
+      </c>
+      <c r="J26" s="1">
+        <v>4</v>
+      </c>
+      <c r="K26" s="1">
+        <v>3</v>
+      </c>
+      <c r="L26" s="1">
+        <v>4</v>
+      </c>
+      <c r="M26" s="1">
+        <v>4</v>
+      </c>
+      <c r="N26" s="1">
+        <v>4</v>
+      </c>
+      <c r="O26" s="1">
+        <v>4</v>
+      </c>
+      <c r="P26" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>4</v>
+      </c>
+      <c r="R26" s="1">
+        <v>4</v>
+      </c>
+      <c r="S26" s="1">
+        <v>4</v>
+      </c>
+      <c r="T26" s="1">
+        <v>4</v>
+      </c>
+      <c r="U26" s="1">
+        <v>4</v>
+      </c>
+      <c r="V26" s="1">
+        <v>4</v>
+      </c>
+      <c r="W26" s="1">
+        <v>4</v>
+      </c>
+      <c r="X26" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1">
+        <v>4</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3</v>
+      </c>
+      <c r="I27" s="1">
+        <v>4</v>
+      </c>
+      <c r="J27" s="1">
+        <v>4</v>
+      </c>
+      <c r="K27" s="1">
+        <v>3</v>
+      </c>
+      <c r="L27" s="1">
+        <v>4</v>
+      </c>
+      <c r="M27" s="1">
+        <v>4</v>
+      </c>
+      <c r="N27" s="1">
+        <v>4</v>
+      </c>
+      <c r="O27" s="1">
+        <v>4</v>
+      </c>
+      <c r="P27" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>4</v>
+      </c>
+      <c r="R27" s="1">
+        <v>4</v>
+      </c>
+      <c r="S27" s="1">
+        <v>4</v>
+      </c>
+      <c r="T27" s="1">
+        <v>4</v>
+      </c>
+      <c r="U27" s="1">
+        <v>4</v>
+      </c>
+      <c r="V27" s="1">
+        <v>4</v>
+      </c>
+      <c r="W27" s="1">
+        <v>4</v>
+      </c>
+      <c r="X27" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1">
+        <v>4</v>
+      </c>
+      <c r="G28" s="1">
+        <v>4</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3</v>
+      </c>
+      <c r="I28" s="1">
+        <v>4</v>
+      </c>
+      <c r="J28" s="1">
+        <v>3</v>
+      </c>
+      <c r="K28" s="1">
+        <v>4</v>
+      </c>
+      <c r="L28" s="1">
+        <v>4</v>
+      </c>
+      <c r="M28" s="1">
+        <v>4</v>
+      </c>
+      <c r="N28" s="1">
+        <v>4</v>
+      </c>
+      <c r="O28" s="1">
+        <v>4</v>
+      </c>
+      <c r="P28" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>4</v>
+      </c>
+      <c r="R28" s="1">
+        <v>4</v>
+      </c>
+      <c r="S28" s="1">
+        <v>4</v>
+      </c>
+      <c r="T28" s="1">
+        <v>4</v>
+      </c>
+      <c r="U28" s="1">
+        <v>4</v>
+      </c>
+      <c r="V28" s="1">
+        <v>4</v>
+      </c>
+      <c r="W28" s="1">
+        <v>4</v>
+      </c>
+      <c r="X28" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1">
+        <v>4</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4</v>
+      </c>
+      <c r="H29" s="1">
+        <v>4</v>
+      </c>
+      <c r="I29" s="1">
+        <v>3</v>
+      </c>
+      <c r="J29" s="1">
+        <v>4</v>
+      </c>
+      <c r="K29" s="1">
+        <v>4</v>
+      </c>
+      <c r="L29" s="1">
+        <v>4</v>
+      </c>
+      <c r="M29" s="1">
+        <v>4</v>
+      </c>
+      <c r="N29" s="1">
+        <v>4</v>
+      </c>
+      <c r="O29" s="1">
+        <v>4</v>
+      </c>
+      <c r="P29" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>4</v>
+      </c>
+      <c r="R29" s="1">
+        <v>4</v>
+      </c>
+      <c r="S29" s="1">
+        <v>4</v>
+      </c>
+      <c r="T29" s="1">
+        <v>4</v>
+      </c>
+      <c r="U29" s="1">
+        <v>4</v>
+      </c>
+      <c r="V29" s="1">
+        <v>4</v>
+      </c>
+      <c r="W29" s="1">
+        <v>4</v>
+      </c>
+      <c r="X29" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1">
+        <v>0</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:Y30">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>